--- a/ШИМ.xlsx
+++ b/ШИМ.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrey\source\repos\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F46461-066A-42E7-AEB2-298D964B0262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB92AC6-FBE3-4E51-A940-7FE699053CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" firstSheet="1" activeTab="5" xr2:uid="{A8659596-E7CE-445D-A5F7-DEEAE94F9AC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" firstSheet="1" activeTab="2" xr2:uid="{A8659596-E7CE-445D-A5F7-DEEAE94F9AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Стандартная частота" sheetId="2" r:id="rId1"/>
     <sheet name="15000 Гц" sheetId="1" r:id="rId2"/>
     <sheet name="15000 Гц Exact" sheetId="3" r:id="rId3"/>
-    <sheet name="15000 Гц Exact 2 kg" sheetId="6" r:id="rId4"/>
-    <sheet name="15000 Гц Exact 10 kg" sheetId="4" r:id="rId5"/>
-    <sheet name="Diff" sheetId="5" r:id="rId6"/>
+    <sheet name="15000 Гц Exact (2)" sheetId="7" r:id="rId4"/>
+    <sheet name="15000 Гц Exact 2 kg" sheetId="6" r:id="rId5"/>
+    <sheet name="15000 Гц Exact 2 kg (2)" sheetId="8" r:id="rId6"/>
+    <sheet name="15000 Гц Exact 10 kg" sheetId="4" r:id="rId7"/>
+    <sheet name="Diff" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>ШИМ</t>
   </si>
@@ -2926,6 +2928,1603 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'15000 Гц Exact (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время оборота, сек.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'15000 Гц Exact (2)'!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'15000 Гц Exact (2)'!$B$2:$B$197</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>96.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.540000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.39</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.06</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.82</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.04</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23.04</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.17</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.97</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.64</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.84</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.75</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>17.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.86</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.43</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.72</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.54</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.38</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.23</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15.15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.97</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.81</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.67</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.52</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.28</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.01</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.89</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>12.24</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.15</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12.05</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11.85</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.76</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11.64</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11.58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11.46</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11.37</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11.26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11.05</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.87</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.52</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.44</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.28</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.11</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.06</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.48</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.99</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.73</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.43</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.31</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.98</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.47</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.39</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.18</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.99</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.73</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.63</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6.63</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.52</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.62</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.58</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.53</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.55</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C27-48BD-ABF7-45C7CEF912E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="157993888"/>
+        <c:axId val="331244192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="157993888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>ШИМ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331244192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="331244192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>секунды</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157993888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время оборота</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'15000 Гц Exact 2 kg'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -4444,7 +6043,1605 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Время оборота</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'15000 Гц Exact 2 kg (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время оборота, сек.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'15000 Гц Exact 2 kg (2)'!$A$2:$A$197</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'15000 Гц Exact 2 kg (2)'!$B$2:$B$197</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="196"/>
+                <c:pt idx="0">
+                  <c:v>105.94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.790000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.29</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>31.58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.63</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>28.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.82</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.99</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24.34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.59</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.89</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.53</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.09</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.88</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20.41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.68</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18.97</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.11</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17.12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.46</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.29</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.99</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.44</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14.78</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.42</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.21</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.91</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.63</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.23</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.16</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.99</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.78</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.62</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12.33</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>12.17</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11.84</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>11.77</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11.61</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>11.42</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11.34</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>11.16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>11.06</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>10.91</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10.86</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.71</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.56</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.52</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.28</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.23</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.25</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.16</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10.01</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.85</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>9.26</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.93</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>8.86</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.81</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.42</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.35</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.15</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.11</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.07</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>8.16</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>7.62</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.58</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7.53</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.36</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7.11</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.88</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.71</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.93</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.66</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.75</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.78</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.64</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.63</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.57</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.81</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.72</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09DA-4D68-A205-22B1A63A5D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="157993888"/>
+        <c:axId val="331244192"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="157993888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>ШИМ</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="331244192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="331244192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>секунды</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157993888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6202,6 +9399,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8821,6 +12098,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -8968,6 +13277,49 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F626BA-DB81-467E-B83A-E4AB9FAEC2CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63177CC-1671-4857-A8FC-EF683AE24A98}"/>
             </a:ext>
           </a:extLst>
@@ -8991,7 +13343,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86499576-43B3-499B-9B37-F5775B68A13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9749,6 +14144,1602 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A17238-2C01-4EB7-92BF-A8DEB2BACEEE}">
   <dimension ref="A1:B197"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2">
+        <v>97.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2">
+        <v>87.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2">
+        <v>81.489999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2">
+        <v>75.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2">
+        <v>70.069999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2">
+        <v>65.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2">
+        <v>60.31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2">
+        <v>55.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2">
+        <v>52.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2">
+        <v>49.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2">
+        <v>47.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42.92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2">
+        <v>40.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2">
+        <v>38.520000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2">
+        <v>36.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2">
+        <v>35.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2">
+        <v>32.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2">
+        <v>31.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22" s="2">
+        <v>30.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2">
+        <v>29.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2">
+        <v>27.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>86</v>
+      </c>
+      <c r="B28" s="2">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2">
+        <v>24.32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>89</v>
+      </c>
+      <c r="B31" s="2">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>91</v>
+      </c>
+      <c r="B33" s="2">
+        <v>22.97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2">
+        <v>22.48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>94</v>
+      </c>
+      <c r="B36" s="2">
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2">
+        <v>21.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>96</v>
+      </c>
+      <c r="B38" s="2">
+        <v>21.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>97</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>98</v>
+      </c>
+      <c r="B40" s="2">
+        <v>20.309999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>99</v>
+      </c>
+      <c r="B41" s="2">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>101</v>
+      </c>
+      <c r="B43" s="2">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>102</v>
+      </c>
+      <c r="B44" s="2">
+        <v>19.09</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>103</v>
+      </c>
+      <c r="B45" s="2">
+        <v>18.760000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>104</v>
+      </c>
+      <c r="B46" s="2">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>105</v>
+      </c>
+      <c r="B47" s="2">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>106</v>
+      </c>
+      <c r="B48" s="2">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>107</v>
+      </c>
+      <c r="B49" s="2">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>108</v>
+      </c>
+      <c r="B50" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>109</v>
+      </c>
+      <c r="B51" s="2">
+        <v>17.29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2">
+        <v>17.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2">
+        <v>16.809999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>112</v>
+      </c>
+      <c r="B54" s="2">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>113</v>
+      </c>
+      <c r="B55" s="2">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>114</v>
+      </c>
+      <c r="B56" s="2">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>115</v>
+      </c>
+      <c r="B57" s="2">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>116</v>
+      </c>
+      <c r="B58" s="2">
+        <v>15.95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>117</v>
+      </c>
+      <c r="B59" s="2">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>122</v>
+      </c>
+      <c r="B64" s="2">
+        <v>15.02</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>123</v>
+      </c>
+      <c r="B65" s="2">
+        <v>14.88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>124</v>
+      </c>
+      <c r="B66" s="2">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>125</v>
+      </c>
+      <c r="B67" s="2">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>126</v>
+      </c>
+      <c r="B68" s="2">
+        <v>14.47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2">
+        <v>14.37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>128</v>
+      </c>
+      <c r="B70" s="2">
+        <v>14.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>129</v>
+      </c>
+      <c r="B71" s="2">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>130</v>
+      </c>
+      <c r="B72" s="2">
+        <v>13.96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>131</v>
+      </c>
+      <c r="B73" s="2">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>132</v>
+      </c>
+      <c r="B74" s="2">
+        <v>13.69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>133</v>
+      </c>
+      <c r="B75" s="2">
+        <v>13.59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>134</v>
+      </c>
+      <c r="B76" s="2">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>135</v>
+      </c>
+      <c r="B77" s="2">
+        <v>13.38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>136</v>
+      </c>
+      <c r="B78" s="2">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>137</v>
+      </c>
+      <c r="B79" s="2">
+        <v>13.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>138</v>
+      </c>
+      <c r="B80" s="2">
+        <v>13.07</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>139</v>
+      </c>
+      <c r="B81" s="2">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>140</v>
+      </c>
+      <c r="B82" s="2">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>141</v>
+      </c>
+      <c r="B83" s="2">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>142</v>
+      </c>
+      <c r="B84" s="2">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>143</v>
+      </c>
+      <c r="B85" s="2">
+        <v>12.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>144</v>
+      </c>
+      <c r="B86" s="2">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>145</v>
+      </c>
+      <c r="B87" s="2">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>146</v>
+      </c>
+      <c r="B88" s="2">
+        <v>12.21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>147</v>
+      </c>
+      <c r="B89" s="2">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>148</v>
+      </c>
+      <c r="B90" s="2">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>149</v>
+      </c>
+      <c r="B91" s="2">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>150</v>
+      </c>
+      <c r="B92" s="2">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>151</v>
+      </c>
+      <c r="B93" s="2">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>152</v>
+      </c>
+      <c r="B94" s="2">
+        <v>11.62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>153</v>
+      </c>
+      <c r="B95" s="2">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>154</v>
+      </c>
+      <c r="B96" s="2">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>155</v>
+      </c>
+      <c r="B97" s="2">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>156</v>
+      </c>
+      <c r="B98" s="2">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>157</v>
+      </c>
+      <c r="B99" s="2">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>158</v>
+      </c>
+      <c r="B100" s="2">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>159</v>
+      </c>
+      <c r="B101" s="2">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>160</v>
+      </c>
+      <c r="B102" s="2">
+        <v>10.82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>161</v>
+      </c>
+      <c r="B103" s="2">
+        <v>10.72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>162</v>
+      </c>
+      <c r="B104" s="2">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>163</v>
+      </c>
+      <c r="B105" s="2">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>164</v>
+      </c>
+      <c r="B106" s="2">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>165</v>
+      </c>
+      <c r="B107" s="2">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>166</v>
+      </c>
+      <c r="B108" s="2">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>167</v>
+      </c>
+      <c r="B109" s="2">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>168</v>
+      </c>
+      <c r="B110" s="2">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>169</v>
+      </c>
+      <c r="B111" s="2">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>170</v>
+      </c>
+      <c r="B112" s="2">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>171</v>
+      </c>
+      <c r="B113" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>172</v>
+      </c>
+      <c r="B114" s="2">
+        <v>9.86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>173</v>
+      </c>
+      <c r="B115" s="2">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>174</v>
+      </c>
+      <c r="B116" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>175</v>
+      </c>
+      <c r="B117" s="2">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>176</v>
+      </c>
+      <c r="B118" s="2">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>177</v>
+      </c>
+      <c r="B119" s="2">
+        <v>9.33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>178</v>
+      </c>
+      <c r="B120" s="2">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>179</v>
+      </c>
+      <c r="B121" s="2">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>180</v>
+      </c>
+      <c r="B122" s="2">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>181</v>
+      </c>
+      <c r="B123" s="2">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>182</v>
+      </c>
+      <c r="B124" s="2">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>183</v>
+      </c>
+      <c r="B125" s="2">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>184</v>
+      </c>
+      <c r="B126" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>185</v>
+      </c>
+      <c r="B127" s="2">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>186</v>
+      </c>
+      <c r="B128" s="2">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>187</v>
+      </c>
+      <c r="B129" s="2">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>188</v>
+      </c>
+      <c r="B130" s="2">
+        <v>8.3800000000000008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>189</v>
+      </c>
+      <c r="B131" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>190</v>
+      </c>
+      <c r="B132" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>191</v>
+      </c>
+      <c r="B133" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>192</v>
+      </c>
+      <c r="B134" s="2">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>193</v>
+      </c>
+      <c r="B135" s="2">
+        <v>8.1199999999999992</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>194</v>
+      </c>
+      <c r="B136" s="2">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>195</v>
+      </c>
+      <c r="B137" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>196</v>
+      </c>
+      <c r="B138" s="2">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>197</v>
+      </c>
+      <c r="B139" s="2">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>198</v>
+      </c>
+      <c r="B140" s="2">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>199</v>
+      </c>
+      <c r="B141" s="2">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>200</v>
+      </c>
+      <c r="B142" s="2">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>201</v>
+      </c>
+      <c r="B143" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>202</v>
+      </c>
+      <c r="B144" s="2">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>203</v>
+      </c>
+      <c r="B145" s="2">
+        <v>7.32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>204</v>
+      </c>
+      <c r="B146" s="2">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>205</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>206</v>
+      </c>
+      <c r="B148" s="2">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>207</v>
+      </c>
+      <c r="B149" s="2">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>208</v>
+      </c>
+      <c r="B150" s="2">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>209</v>
+      </c>
+      <c r="B151" s="2">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>210</v>
+      </c>
+      <c r="B152" s="2">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>211</v>
+      </c>
+      <c r="B153" s="2">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>212</v>
+      </c>
+      <c r="B154" s="2">
+        <v>6.76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>213</v>
+      </c>
+      <c r="B155" s="2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>214</v>
+      </c>
+      <c r="B156" s="2">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>215</v>
+      </c>
+      <c r="B157" s="2">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>216</v>
+      </c>
+      <c r="B158" s="2">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>217</v>
+      </c>
+      <c r="B159" s="2">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>218</v>
+      </c>
+      <c r="B160" s="2">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>219</v>
+      </c>
+      <c r="B161" s="2">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>220</v>
+      </c>
+      <c r="B162" s="2">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>221</v>
+      </c>
+      <c r="B163" s="2">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>222</v>
+      </c>
+      <c r="B164" s="2">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>223</v>
+      </c>
+      <c r="B165" s="2">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>224</v>
+      </c>
+      <c r="B166" s="2">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>225</v>
+      </c>
+      <c r="B167" s="2">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>226</v>
+      </c>
+      <c r="B168" s="2">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>227</v>
+      </c>
+      <c r="B169" s="2">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>228</v>
+      </c>
+      <c r="B170" s="2">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>229</v>
+      </c>
+      <c r="B171" s="2">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>230</v>
+      </c>
+      <c r="B172" s="2">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>231</v>
+      </c>
+      <c r="B173" s="2">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>232</v>
+      </c>
+      <c r="B174" s="2">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>233</v>
+      </c>
+      <c r="B175" s="2">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>234</v>
+      </c>
+      <c r="B176" s="2">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>235</v>
+      </c>
+      <c r="B177" s="2">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>236</v>
+      </c>
+      <c r="B178" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>237</v>
+      </c>
+      <c r="B179" s="2">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>238</v>
+      </c>
+      <c r="B180" s="2">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>239</v>
+      </c>
+      <c r="B181" s="2">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>240</v>
+      </c>
+      <c r="B182" s="2">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>241</v>
+      </c>
+      <c r="B183" s="2">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>242</v>
+      </c>
+      <c r="B184" s="2">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>243</v>
+      </c>
+      <c r="B185" s="2">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>244</v>
+      </c>
+      <c r="B186" s="2">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>245</v>
+      </c>
+      <c r="B187" s="2">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>246</v>
+      </c>
+      <c r="B188" s="2">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>247</v>
+      </c>
+      <c r="B189" s="2">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>248</v>
+      </c>
+      <c r="B190" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>249</v>
+      </c>
+      <c r="B191" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>250</v>
+      </c>
+      <c r="B192" s="2">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>251</v>
+      </c>
+      <c r="B193" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>252</v>
+      </c>
+      <c r="B194" s="2">
+        <v>6.47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>253</v>
+      </c>
+      <c r="B195" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>254</v>
+      </c>
+      <c r="B196" s="2">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>255</v>
+      </c>
+      <c r="B197" s="2">
+        <v>6.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E557F9-B63F-4AC0-9077-E57BB3DB49BE}">
+  <dimension ref="A1:B197"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
@@ -9771,7 +15762,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="2">
-        <v>97.81</v>
+        <v>96.44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -9779,7 +15770,7 @@
         <v>61</v>
       </c>
       <c r="B3" s="2">
-        <v>87.97</v>
+        <v>87.89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -9787,7 +15778,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="2">
-        <v>81.489999999999995</v>
+        <v>80.75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -9795,7 +15786,7 @@
         <v>63</v>
       </c>
       <c r="B5" s="2">
-        <v>75.87</v>
+        <v>74.61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -9803,7 +15794,7 @@
         <v>64</v>
       </c>
       <c r="B6" s="2">
-        <v>70.069999999999993</v>
+        <v>69.540000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -9811,7 +15802,7 @@
         <v>65</v>
       </c>
       <c r="B7" s="2">
-        <v>65.61</v>
+        <v>64.86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9819,7 +15810,7 @@
         <v>66</v>
       </c>
       <c r="B8" s="2">
-        <v>60.31</v>
+        <v>60.91</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -9827,7 +15818,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="2">
-        <v>55.53</v>
+        <v>56.91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -9835,7 +15826,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="2">
-        <v>52.13</v>
+        <v>53.42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -9843,7 +15834,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="2">
-        <v>49.73</v>
+        <v>50.19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -9851,7 +15842,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="2">
-        <v>47.23</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -9859,7 +15850,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="2">
-        <v>45.11</v>
+        <v>44.84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -9867,7 +15858,7 @@
         <v>72</v>
       </c>
       <c r="B14" s="2">
-        <v>42.92</v>
+        <v>43.33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -9875,7 +15866,7 @@
         <v>73</v>
       </c>
       <c r="B15" s="2">
-        <v>40.79</v>
+        <v>41.48</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -9883,7 +15874,7 @@
         <v>74</v>
       </c>
       <c r="B16" s="2">
-        <v>38.520000000000003</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -9891,7 +15882,7 @@
         <v>75</v>
       </c>
       <c r="B17" s="2">
-        <v>36.82</v>
+        <v>38.020000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -9899,7 +15890,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="2">
-        <v>35.03</v>
+        <v>36.409999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -9907,7 +15898,7 @@
         <v>77</v>
       </c>
       <c r="B19" s="2">
-        <v>33.700000000000003</v>
+        <v>34.869999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -9915,7 +15906,7 @@
         <v>78</v>
       </c>
       <c r="B20" s="2">
-        <v>32.14</v>
+        <v>33.39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -9923,7 +15914,7 @@
         <v>79</v>
       </c>
       <c r="B21" s="2">
-        <v>31.15</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -9931,7 +15922,7 @@
         <v>80</v>
       </c>
       <c r="B22" s="2">
-        <v>30.01</v>
+        <v>30.82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -9939,7 +15930,7 @@
         <v>81</v>
       </c>
       <c r="B23" s="2">
-        <v>29.19</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -9947,7 +15938,7 @@
         <v>82</v>
       </c>
       <c r="B24" s="2">
-        <v>28.1</v>
+        <v>28.92</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -9955,7 +15946,7 @@
         <v>83</v>
       </c>
       <c r="B25" s="2">
-        <v>27.37</v>
+        <v>27.81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -9963,7 +15954,7 @@
         <v>84</v>
       </c>
       <c r="B26" s="2">
-        <v>26.3</v>
+        <v>27.21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -9971,7 +15962,7 @@
         <v>85</v>
       </c>
       <c r="B27" s="2">
-        <v>25.58</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -9979,7 +15970,7 @@
         <v>86</v>
       </c>
       <c r="B28" s="2">
-        <v>24.84</v>
+        <v>25.44</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -9987,7 +15978,7 @@
         <v>87</v>
       </c>
       <c r="B29" s="2">
-        <v>24.32</v>
+        <v>24.34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -9995,7 +15986,7 @@
         <v>88</v>
       </c>
       <c r="B30" s="2">
-        <v>23.53</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -10003,7 +15994,7 @@
         <v>89</v>
       </c>
       <c r="B31" s="2">
-        <v>22.94</v>
+        <v>23.04</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -10011,7 +16002,7 @@
         <v>90</v>
       </c>
       <c r="B32" s="2">
-        <v>22.54</v>
+        <v>22.49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -10019,7 +16010,7 @@
         <v>91</v>
       </c>
       <c r="B33" s="2">
-        <v>22.97</v>
+        <v>23.17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -10027,7 +16018,7 @@
         <v>92</v>
       </c>
       <c r="B34" s="2">
-        <v>22.48</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -10035,7 +16026,7 @@
         <v>93</v>
       </c>
       <c r="B35" s="2">
-        <v>22.23</v>
+        <v>22.55</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -10043,7 +16034,7 @@
         <v>94</v>
       </c>
       <c r="B36" s="2">
-        <v>21.82</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -10051,7 +16042,7 @@
         <v>95</v>
       </c>
       <c r="B37" s="2">
-        <v>21.46</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -10059,7 +16050,7 @@
         <v>96</v>
       </c>
       <c r="B38" s="2">
-        <v>21.01</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -10067,7 +16058,7 @@
         <v>97</v>
       </c>
       <c r="B39" s="2">
-        <v>20.7</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -10075,7 +16066,7 @@
         <v>98</v>
       </c>
       <c r="B40" s="2">
-        <v>20.309999999999999</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -10083,7 +16074,7 @@
         <v>99</v>
       </c>
       <c r="B41" s="2">
-        <v>19.96</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -10091,7 +16082,7 @@
         <v>100</v>
       </c>
       <c r="B42" s="2">
-        <v>19.670000000000002</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -10099,7 +16090,7 @@
         <v>101</v>
       </c>
       <c r="B43" s="2">
-        <v>19.440000000000001</v>
+        <v>19.579999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -10107,7 +16098,7 @@
         <v>102</v>
       </c>
       <c r="B44" s="2">
-        <v>19.09</v>
+        <v>19.18</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -10115,7 +16106,7 @@
         <v>103</v>
       </c>
       <c r="B45" s="2">
-        <v>18.760000000000002</v>
+        <v>18.84</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -10123,7 +16114,7 @@
         <v>104</v>
       </c>
       <c r="B46" s="2">
-        <v>18.47</v>
+        <v>18.579999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -10131,7 +16122,7 @@
         <v>105</v>
       </c>
       <c r="B47" s="2">
-        <v>18.22</v>
+        <v>18.28</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -10139,7 +16130,7 @@
         <v>106</v>
       </c>
       <c r="B48" s="2">
-        <v>17.98</v>
+        <v>18.010000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -10147,7 +16138,7 @@
         <v>107</v>
       </c>
       <c r="B49" s="2">
-        <v>17.73</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -10155,7 +16146,7 @@
         <v>108</v>
       </c>
       <c r="B50" s="2">
-        <v>17.5</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -10163,7 +16154,7 @@
         <v>109</v>
       </c>
       <c r="B51" s="2">
-        <v>17.29</v>
+        <v>17.27</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -10171,7 +16162,7 @@
         <v>110</v>
       </c>
       <c r="B52" s="2">
-        <v>17.04</v>
+        <v>17.059999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -10179,7 +16170,7 @@
         <v>111</v>
       </c>
       <c r="B53" s="2">
-        <v>16.809999999999999</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -10187,7 +16178,7 @@
         <v>112</v>
       </c>
       <c r="B54" s="2">
-        <v>16.63</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -10195,7 +16186,7 @@
         <v>113</v>
       </c>
       <c r="B55" s="2">
-        <v>16.5</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -10203,7 +16194,7 @@
         <v>114</v>
       </c>
       <c r="B56" s="2">
-        <v>16.3</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -10211,7 +16202,7 @@
         <v>115</v>
       </c>
       <c r="B57" s="2">
-        <v>16.13</v>
+        <v>16.059999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -10219,7 +16210,7 @@
         <v>116</v>
       </c>
       <c r="B58" s="2">
-        <v>15.95</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -10227,7 +16218,7 @@
         <v>117</v>
       </c>
       <c r="B59" s="2">
-        <v>15.81</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -10235,7 +16226,7 @@
         <v>118</v>
       </c>
       <c r="B60" s="2">
-        <v>15.63</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -10243,7 +16234,7 @@
         <v>119</v>
       </c>
       <c r="B61" s="2">
-        <v>15.47</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -10251,7 +16242,7 @@
         <v>120</v>
       </c>
       <c r="B62" s="2">
-        <v>15.31</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -10259,7 +16250,7 @@
         <v>121</v>
       </c>
       <c r="B63" s="2">
-        <v>15.18</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -10267,7 +16258,7 @@
         <v>122</v>
       </c>
       <c r="B64" s="2">
-        <v>15.02</v>
+        <v>14.97</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -10275,7 +16266,7 @@
         <v>123</v>
       </c>
       <c r="B65" s="2">
-        <v>14.88</v>
+        <v>14.81</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -10283,7 +16274,7 @@
         <v>124</v>
       </c>
       <c r="B66" s="2">
-        <v>14.74</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -10291,7 +16282,7 @@
         <v>125</v>
       </c>
       <c r="B67" s="2">
-        <v>14.62</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -10299,7 +16290,7 @@
         <v>126</v>
       </c>
       <c r="B68" s="2">
-        <v>14.47</v>
+        <v>14.39</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -10307,7 +16298,7 @@
         <v>127</v>
       </c>
       <c r="B69" s="2">
-        <v>14.37</v>
+        <v>14.28</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -10315,7 +16306,7 @@
         <v>128</v>
       </c>
       <c r="B70" s="2">
-        <v>14.19</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -10323,7 +16314,7 @@
         <v>129</v>
       </c>
       <c r="B71" s="2">
-        <v>14.1</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -10331,7 +16322,7 @@
         <v>130</v>
       </c>
       <c r="B72" s="2">
-        <v>13.96</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -10339,7 +16330,7 @@
         <v>131</v>
       </c>
       <c r="B73" s="2">
-        <v>13.87</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -10347,7 +16338,7 @@
         <v>132</v>
       </c>
       <c r="B74" s="2">
-        <v>13.69</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -10355,7 +16346,7 @@
         <v>133</v>
       </c>
       <c r="B75" s="2">
-        <v>13.59</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -10363,7 +16354,7 @@
         <v>134</v>
       </c>
       <c r="B76" s="2">
-        <v>13.48</v>
+        <v>13.39</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -10371,7 +16362,7 @@
         <v>135</v>
       </c>
       <c r="B77" s="2">
-        <v>13.38</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -10379,7 +16370,7 @@
         <v>136</v>
       </c>
       <c r="B78" s="2">
-        <v>13.26</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -10387,7 +16378,7 @@
         <v>137</v>
       </c>
       <c r="B79" s="2">
-        <v>13.18</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -10395,7 +16386,7 @@
         <v>138</v>
       </c>
       <c r="B80" s="2">
-        <v>13.07</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -10403,7 +16394,7 @@
         <v>139</v>
       </c>
       <c r="B81" s="2">
-        <v>12.94</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -10411,7 +16402,7 @@
         <v>140</v>
       </c>
       <c r="B82" s="2">
-        <v>12.84</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -10419,7 +16410,7 @@
         <v>141</v>
       </c>
       <c r="B83" s="2">
-        <v>12.74</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -10427,7 +16418,7 @@
         <v>142</v>
       </c>
       <c r="B84" s="2">
-        <v>12.64</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -10435,7 +16426,7 @@
         <v>143</v>
       </c>
       <c r="B85" s="2">
-        <v>12.53</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -10443,7 +16434,7 @@
         <v>144</v>
       </c>
       <c r="B86" s="2">
-        <v>12.42</v>
+        <v>12.34</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -10451,7 +16442,7 @@
         <v>145</v>
       </c>
       <c r="B87" s="2">
-        <v>12.31</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -10459,7 +16450,7 @@
         <v>146</v>
       </c>
       <c r="B88" s="2">
-        <v>12.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -10467,7 +16458,7 @@
         <v>147</v>
       </c>
       <c r="B89" s="2">
-        <v>12.09</v>
+        <v>12.05</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -10475,7 +16466,7 @@
         <v>148</v>
       </c>
       <c r="B90" s="2">
-        <v>12.01</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -10483,7 +16474,7 @@
         <v>149</v>
       </c>
       <c r="B91" s="2">
-        <v>11.93</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -10491,7 +16482,7 @@
         <v>150</v>
       </c>
       <c r="B92" s="2">
-        <v>11.83</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -10499,7 +16490,7 @@
         <v>151</v>
       </c>
       <c r="B93" s="2">
-        <v>11.71</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -10507,7 +16498,7 @@
         <v>152</v>
       </c>
       <c r="B94" s="2">
-        <v>11.62</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -10515,7 +16506,7 @@
         <v>153</v>
       </c>
       <c r="B95" s="2">
-        <v>11.51</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -10523,7 +16514,7 @@
         <v>154</v>
       </c>
       <c r="B96" s="2">
-        <v>11.39</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -10539,7 +16530,7 @@
         <v>156</v>
       </c>
       <c r="B98" s="2">
-        <v>11.18</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -10547,7 +16538,7 @@
         <v>157</v>
       </c>
       <c r="B99" s="2">
-        <v>11.07</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -10555,7 +16546,7 @@
         <v>158</v>
       </c>
       <c r="B100" s="2">
-        <v>11.03</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -10563,7 +16554,7 @@
         <v>159</v>
       </c>
       <c r="B101" s="2">
-        <v>10.9</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -10571,7 +16562,7 @@
         <v>160</v>
       </c>
       <c r="B102" s="2">
-        <v>10.82</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -10579,7 +16570,7 @@
         <v>161</v>
       </c>
       <c r="B103" s="2">
-        <v>10.72</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -10587,7 +16578,7 @@
         <v>162</v>
       </c>
       <c r="B104" s="2">
-        <v>10.64</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -10595,7 +16586,7 @@
         <v>163</v>
       </c>
       <c r="B105" s="2">
-        <v>10.55</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -10603,7 +16594,7 @@
         <v>164</v>
       </c>
       <c r="B106" s="2">
-        <v>10.45</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -10611,7 +16602,7 @@
         <v>165</v>
       </c>
       <c r="B107" s="2">
-        <v>10.35</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -10619,7 +16610,7 @@
         <v>166</v>
       </c>
       <c r="B108" s="2">
-        <v>10.29</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -10627,7 +16618,7 @@
         <v>167</v>
       </c>
       <c r="B109" s="2">
-        <v>10.24</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -10635,7 +16626,7 @@
         <v>168</v>
       </c>
       <c r="B110" s="2">
-        <v>10.16</v>
+        <v>10.11</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -10643,7 +16634,7 @@
         <v>169</v>
       </c>
       <c r="B111" s="2">
-        <v>10.07</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -10651,7 +16642,7 @@
         <v>170</v>
       </c>
       <c r="B112" s="2">
-        <v>10.119999999999999</v>
+        <v>10.220000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -10659,7 +16650,7 @@
         <v>171</v>
       </c>
       <c r="B113" s="2">
-        <v>10</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -10667,7 +16658,7 @@
         <v>172</v>
       </c>
       <c r="B114" s="2">
-        <v>9.86</v>
+        <v>9.8699999999999992</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -10675,7 +16666,7 @@
         <v>173</v>
       </c>
       <c r="B115" s="2">
-        <v>9.75</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -10683,7 +16674,7 @@
         <v>174</v>
       </c>
       <c r="B116" s="2">
-        <v>9.6999999999999993</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -10691,7 +16682,7 @@
         <v>175</v>
       </c>
       <c r="B117" s="2">
-        <v>9.5500000000000007</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -10699,7 +16690,7 @@
         <v>176</v>
       </c>
       <c r="B118" s="2">
-        <v>9.43</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -10707,7 +16698,7 @@
         <v>177</v>
       </c>
       <c r="B119" s="2">
-        <v>9.33</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -10715,7 +16706,7 @@
         <v>178</v>
       </c>
       <c r="B120" s="2">
-        <v>9.24</v>
+        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -10723,7 +16714,7 @@
         <v>179</v>
       </c>
       <c r="B121" s="2">
-        <v>9.15</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -10731,7 +16722,7 @@
         <v>180</v>
       </c>
       <c r="B122" s="2">
-        <v>9.0500000000000007</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -10739,7 +16730,7 @@
         <v>181</v>
       </c>
       <c r="B123" s="2">
-        <v>8.9700000000000006</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -10747,7 +16738,7 @@
         <v>182</v>
       </c>
       <c r="B124" s="2">
-        <v>8.8699999999999992</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -10755,7 +16746,7 @@
         <v>183</v>
       </c>
       <c r="B125" s="2">
-        <v>8.7899999999999991</v>
+        <v>8.8699999999999992</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -10763,7 +16754,7 @@
         <v>184</v>
       </c>
       <c r="B126" s="2">
-        <v>8.6999999999999993</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -10771,7 +16762,7 @@
         <v>185</v>
       </c>
       <c r="B127" s="2">
-        <v>8.6300000000000008</v>
+        <v>8.6199999999999992</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -10779,7 +16770,7 @@
         <v>186</v>
       </c>
       <c r="B128" s="2">
-        <v>8.5399999999999991</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -10787,7 +16778,7 @@
         <v>187</v>
       </c>
       <c r="B129" s="2">
-        <v>8.4700000000000006</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -10795,7 +16786,7 @@
         <v>188</v>
       </c>
       <c r="B130" s="2">
-        <v>8.3800000000000008</v>
+        <v>8.42</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -10803,7 +16794,7 @@
         <v>189</v>
       </c>
       <c r="B131" s="2">
-        <v>8.2799999999999994</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -10811,7 +16802,7 @@
         <v>190</v>
       </c>
       <c r="B132" s="2">
-        <v>8.2100000000000009</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -10819,7 +16810,7 @@
         <v>191</v>
       </c>
       <c r="B133" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -10827,7 +16818,7 @@
         <v>192</v>
       </c>
       <c r="B134" s="2">
-        <v>8.15</v>
+        <v>8.1199999999999992</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -10835,7 +16826,7 @@
         <v>193</v>
       </c>
       <c r="B135" s="2">
-        <v>8.1199999999999992</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -10843,7 +16834,7 @@
         <v>194</v>
       </c>
       <c r="B136" s="2">
-        <v>8.06</v>
+        <v>8.0500000000000007</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -10851,7 +16842,7 @@
         <v>195</v>
       </c>
       <c r="B137" s="2">
-        <v>8.0399999999999991</v>
+        <v>7.98</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -10859,7 +16850,7 @@
         <v>196</v>
       </c>
       <c r="B138" s="2">
-        <v>7.99</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -10867,7 +16858,7 @@
         <v>197</v>
       </c>
       <c r="B139" s="2">
-        <v>7.94</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -10875,7 +16866,7 @@
         <v>198</v>
       </c>
       <c r="B140" s="2">
-        <v>7.81</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -10883,7 +16874,7 @@
         <v>199</v>
       </c>
       <c r="B141" s="2">
-        <v>7.64</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -10899,7 +16890,7 @@
         <v>201</v>
       </c>
       <c r="B143" s="2">
-        <v>7.5</v>
+        <v>7.47</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -10907,7 +16898,7 @@
         <v>202</v>
       </c>
       <c r="B144" s="2">
-        <v>7.42</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -10915,7 +16906,7 @@
         <v>203</v>
       </c>
       <c r="B145" s="2">
-        <v>7.32</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -10923,7 +16914,7 @@
         <v>204</v>
       </c>
       <c r="B146" s="2">
-        <v>7.24</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -10931,7 +16922,7 @@
         <v>205</v>
       </c>
       <c r="B147" s="2">
-        <v>7.17</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -10939,7 +16930,7 @@
         <v>206</v>
       </c>
       <c r="B148" s="2">
-        <v>7.1</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -10947,7 +16938,7 @@
         <v>207</v>
       </c>
       <c r="B149" s="2">
-        <v>7.02</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -10955,7 +16946,7 @@
         <v>208</v>
       </c>
       <c r="B150" s="2">
-        <v>7.01</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -10963,7 +16954,7 @@
         <v>209</v>
       </c>
       <c r="B151" s="2">
-        <v>6.94</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -10971,7 +16962,7 @@
         <v>210</v>
       </c>
       <c r="B152" s="2">
-        <v>6.88</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -10979,7 +16970,7 @@
         <v>211</v>
       </c>
       <c r="B153" s="2">
-        <v>6.81</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -10987,7 +16978,7 @@
         <v>212</v>
       </c>
       <c r="B154" s="2">
-        <v>6.76</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -10995,7 +16986,7 @@
         <v>213</v>
       </c>
       <c r="B155" s="2">
-        <v>6.72</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -11003,7 +16994,7 @@
         <v>214</v>
       </c>
       <c r="B156" s="2">
-        <v>6.68</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -11011,7 +17002,7 @@
         <v>215</v>
       </c>
       <c r="B157" s="2">
-        <v>6.65</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -11019,7 +17010,7 @@
         <v>216</v>
       </c>
       <c r="B158" s="2">
-        <v>6.62</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -11027,7 +17018,7 @@
         <v>217</v>
       </c>
       <c r="B159" s="2">
-        <v>6.59</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -11035,7 +17026,7 @@
         <v>218</v>
       </c>
       <c r="B160" s="2">
-        <v>6.56</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -11043,7 +17034,7 @@
         <v>219</v>
       </c>
       <c r="B161" s="2">
-        <v>6.54</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -11051,7 +17042,7 @@
         <v>220</v>
       </c>
       <c r="B162" s="2">
-        <v>6.52</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -11059,7 +17050,7 @@
         <v>221</v>
       </c>
       <c r="B163" s="2">
-        <v>6.51</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -11067,7 +17058,7 @@
         <v>222</v>
       </c>
       <c r="B164" s="2">
-        <v>6.49</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -11075,7 +17066,7 @@
         <v>223</v>
       </c>
       <c r="B165" s="2">
-        <v>6.47</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -11083,7 +17074,7 @@
         <v>224</v>
       </c>
       <c r="B166" s="2">
-        <v>6.44</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -11091,7 +17082,7 @@
         <v>225</v>
       </c>
       <c r="B167" s="2">
-        <v>6.46</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -11099,7 +17090,7 @@
         <v>226</v>
       </c>
       <c r="B168" s="2">
-        <v>6.47</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -11107,7 +17098,7 @@
         <v>227</v>
       </c>
       <c r="B169" s="2">
-        <v>6.51</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -11115,7 +17106,7 @@
         <v>228</v>
       </c>
       <c r="B170" s="2">
-        <v>6.47</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -11123,7 +17114,7 @@
         <v>229</v>
       </c>
       <c r="B171" s="2">
-        <v>6.42</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -11131,7 +17122,7 @@
         <v>230</v>
       </c>
       <c r="B172" s="2">
-        <v>6.42</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -11139,7 +17130,7 @@
         <v>231</v>
       </c>
       <c r="B173" s="2">
-        <v>6.42</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -11147,7 +17138,7 @@
         <v>232</v>
       </c>
       <c r="B174" s="2">
-        <v>6.43</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -11155,7 +17146,7 @@
         <v>233</v>
       </c>
       <c r="B175" s="2">
-        <v>6.43</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -11163,7 +17154,7 @@
         <v>234</v>
       </c>
       <c r="B176" s="2">
-        <v>6.43</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -11171,7 +17162,7 @@
         <v>235</v>
       </c>
       <c r="B177" s="2">
-        <v>6.43</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -11179,7 +17170,7 @@
         <v>236</v>
       </c>
       <c r="B178" s="2">
-        <v>6.5</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -11187,7 +17178,7 @@
         <v>237</v>
       </c>
       <c r="B179" s="2">
-        <v>6.45</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -11195,7 +17186,7 @@
         <v>238</v>
       </c>
       <c r="B180" s="2">
-        <v>6.41</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -11203,7 +17194,7 @@
         <v>239</v>
       </c>
       <c r="B181" s="2">
-        <v>6.43</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -11211,7 +17202,7 @@
         <v>240</v>
       </c>
       <c r="B182" s="2">
-        <v>6.42</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -11219,7 +17210,7 @@
         <v>241</v>
       </c>
       <c r="B183" s="2">
-        <v>6.43</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -11235,7 +17226,7 @@
         <v>243</v>
       </c>
       <c r="B185" s="2">
-        <v>6.46</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -11243,7 +17234,7 @@
         <v>244</v>
       </c>
       <c r="B186" s="2">
-        <v>6.48</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -11251,7 +17242,7 @@
         <v>245</v>
       </c>
       <c r="B187" s="2">
-        <v>6.49</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -11259,7 +17250,7 @@
         <v>246</v>
       </c>
       <c r="B188" s="2">
-        <v>6.43</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -11267,7 +17258,7 @@
         <v>247</v>
       </c>
       <c r="B189" s="2">
-        <v>6.41</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -11275,7 +17266,7 @@
         <v>248</v>
       </c>
       <c r="B190" s="2">
-        <v>6.4</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -11283,7 +17274,7 @@
         <v>249</v>
       </c>
       <c r="B191" s="2">
-        <v>6.4</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -11291,7 +17282,7 @@
         <v>250</v>
       </c>
       <c r="B192" s="2">
-        <v>6.39</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -11299,7 +17290,7 @@
         <v>251</v>
       </c>
       <c r="B193" s="2">
-        <v>6.4</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -11307,7 +17298,7 @@
         <v>252</v>
       </c>
       <c r="B194" s="2">
-        <v>6.47</v>
+        <v>6.54</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -11323,7 +17314,7 @@
         <v>254</v>
       </c>
       <c r="B196" s="2">
-        <v>6.43</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -11331,7 +17322,7 @@
         <v>255</v>
       </c>
       <c r="B197" s="2">
-        <v>6.39</v>
+        <v>6.52</v>
       </c>
     </row>
   </sheetData>
@@ -11341,7 +17332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBD0D21-45ED-4A68-94FC-EEF90BE41D81}">
   <dimension ref="A1:B197"/>
   <sheetViews>
@@ -12937,7 +18928,1603 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9277372-CDD2-45C7-A973-B08B2C46D6AA}">
+  <dimension ref="A1:B197"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2">
+        <v>105.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2">
+        <v>94.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2">
+        <v>77.790000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2">
+        <v>71.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2">
+        <v>67.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>66</v>
+      </c>
+      <c r="B8" s="2">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>67</v>
+      </c>
+      <c r="B9" s="2">
+        <v>57.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2">
+        <v>53.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>69</v>
+      </c>
+      <c r="B11" s="2">
+        <v>50.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2">
+        <v>48.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2">
+        <v>40.520000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2">
+        <v>38.659999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>75</v>
+      </c>
+      <c r="B17" s="2">
+        <v>37.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>76</v>
+      </c>
+      <c r="B18" s="2">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2">
+        <v>34.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>78</v>
+      </c>
+      <c r="B20" s="2">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2">
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22" s="2">
+        <v>30.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2">
+        <v>29.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2">
+        <v>28.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>83</v>
+      </c>
+      <c r="B25" s="2">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>84</v>
+      </c>
+      <c r="B26" s="2">
+        <v>26.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>85</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>86</v>
+      </c>
+      <c r="B28" s="2">
+        <v>25.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>87</v>
+      </c>
+      <c r="B29" s="2">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>89</v>
+      </c>
+      <c r="B31" s="2">
+        <v>22.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2">
+        <v>22.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>91</v>
+      </c>
+      <c r="B33" s="2">
+        <v>22.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2">
+        <v>22.59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>93</v>
+      </c>
+      <c r="B35" s="2">
+        <v>22.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>94</v>
+      </c>
+      <c r="B36" s="2">
+        <v>21.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2">
+        <v>21.53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>96</v>
+      </c>
+      <c r="B38" s="2">
+        <v>21.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>97</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>98</v>
+      </c>
+      <c r="B40" s="2">
+        <v>20.41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>99</v>
+      </c>
+      <c r="B41" s="2">
+        <v>20.149999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42" s="2">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>101</v>
+      </c>
+      <c r="B43" s="2">
+        <v>19.329999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>102</v>
+      </c>
+      <c r="B44" s="2">
+        <v>18.97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>103</v>
+      </c>
+      <c r="B45" s="2">
+        <v>18.670000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>104</v>
+      </c>
+      <c r="B46" s="2">
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>105</v>
+      </c>
+      <c r="B47" s="2">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>106</v>
+      </c>
+      <c r="B48" s="2">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>107</v>
+      </c>
+      <c r="B49" s="2">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>108</v>
+      </c>
+      <c r="B50" s="2">
+        <v>17.350000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>109</v>
+      </c>
+      <c r="B51" s="2">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>110</v>
+      </c>
+      <c r="B52" s="2">
+        <v>16.850000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>112</v>
+      </c>
+      <c r="B54" s="2">
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>113</v>
+      </c>
+      <c r="B55" s="2">
+        <v>16.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>114</v>
+      </c>
+      <c r="B56" s="2">
+        <v>16.190000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>115</v>
+      </c>
+      <c r="B57" s="2">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>116</v>
+      </c>
+      <c r="B58" s="2">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>117</v>
+      </c>
+      <c r="B59" s="2">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>122</v>
+      </c>
+      <c r="B64" s="2">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>123</v>
+      </c>
+      <c r="B65" s="2">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>124</v>
+      </c>
+      <c r="B66" s="2">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>125</v>
+      </c>
+      <c r="B67" s="2">
+        <v>14.45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>126</v>
+      </c>
+      <c r="B68" s="2">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>127</v>
+      </c>
+      <c r="B69" s="2">
+        <v>14.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>128</v>
+      </c>
+      <c r="B70" s="2">
+        <v>14.15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>129</v>
+      </c>
+      <c r="B71" s="2">
+        <v>14.05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>130</v>
+      </c>
+      <c r="B72" s="2">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>131</v>
+      </c>
+      <c r="B73" s="2">
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>132</v>
+      </c>
+      <c r="B74" s="2">
+        <v>13.68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>133</v>
+      </c>
+      <c r="B75" s="2">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>134</v>
+      </c>
+      <c r="B76" s="2">
+        <v>13.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>135</v>
+      </c>
+      <c r="B77" s="2">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>136</v>
+      </c>
+      <c r="B78" s="2">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>137</v>
+      </c>
+      <c r="B79" s="2">
+        <v>13.16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>138</v>
+      </c>
+      <c r="B80" s="2">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>139</v>
+      </c>
+      <c r="B81" s="2">
+        <v>12.86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>140</v>
+      </c>
+      <c r="B82" s="2">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>141</v>
+      </c>
+      <c r="B83" s="2">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>142</v>
+      </c>
+      <c r="B84" s="2">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>143</v>
+      </c>
+      <c r="B85" s="2">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>144</v>
+      </c>
+      <c r="B86" s="2">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>145</v>
+      </c>
+      <c r="B87" s="2">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>146</v>
+      </c>
+      <c r="B88" s="2">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>147</v>
+      </c>
+      <c r="B89" s="2">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>148</v>
+      </c>
+      <c r="B90" s="2">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>149</v>
+      </c>
+      <c r="B91" s="2">
+        <v>11.84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>150</v>
+      </c>
+      <c r="B92" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>151</v>
+      </c>
+      <c r="B93" s="2">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>152</v>
+      </c>
+      <c r="B94" s="2">
+        <v>11.61</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>153</v>
+      </c>
+      <c r="B95" s="2">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>154</v>
+      </c>
+      <c r="B96" s="2">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>155</v>
+      </c>
+      <c r="B97" s="2">
+        <v>11.34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>156</v>
+      </c>
+      <c r="B98" s="2">
+        <v>11.16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>157</v>
+      </c>
+      <c r="B99" s="2">
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>158</v>
+      </c>
+      <c r="B100" s="2">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>159</v>
+      </c>
+      <c r="B101" s="2">
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>160</v>
+      </c>
+      <c r="B102" s="2">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>161</v>
+      </c>
+      <c r="B103" s="2">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>162</v>
+      </c>
+      <c r="B104" s="2">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>163</v>
+      </c>
+      <c r="B105" s="2">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>164</v>
+      </c>
+      <c r="B106" s="2">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>165</v>
+      </c>
+      <c r="B107" s="2">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>166</v>
+      </c>
+      <c r="B108" s="2">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>167</v>
+      </c>
+      <c r="B109" s="2">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>168</v>
+      </c>
+      <c r="B110" s="2">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>169</v>
+      </c>
+      <c r="B111" s="2">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>170</v>
+      </c>
+      <c r="B112" s="2">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>171</v>
+      </c>
+      <c r="B113" s="2">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>172</v>
+      </c>
+      <c r="B114" s="2">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>173</v>
+      </c>
+      <c r="B115" s="2">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>174</v>
+      </c>
+      <c r="B116" s="2">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>175</v>
+      </c>
+      <c r="B117" s="2">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>176</v>
+      </c>
+      <c r="B118" s="2">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>177</v>
+      </c>
+      <c r="B119" s="2">
+        <v>9.32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>178</v>
+      </c>
+      <c r="B120" s="2">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>179</v>
+      </c>
+      <c r="B121" s="2">
+        <v>9.09</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>180</v>
+      </c>
+      <c r="B122" s="2">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>181</v>
+      </c>
+      <c r="B123" s="2">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>182</v>
+      </c>
+      <c r="B124" s="2">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>183</v>
+      </c>
+      <c r="B125" s="2">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>184</v>
+      </c>
+      <c r="B126" s="2">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>185</v>
+      </c>
+      <c r="B127" s="2">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>186</v>
+      </c>
+      <c r="B128" s="2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>187</v>
+      </c>
+      <c r="B129" s="2">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>188</v>
+      </c>
+      <c r="B130" s="2">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>189</v>
+      </c>
+      <c r="B131" s="2">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>190</v>
+      </c>
+      <c r="B132" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>191</v>
+      </c>
+      <c r="B133" s="2">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>192</v>
+      </c>
+      <c r="B134" s="2">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>193</v>
+      </c>
+      <c r="B135" s="2">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>194</v>
+      </c>
+      <c r="B136" s="2">
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>195</v>
+      </c>
+      <c r="B137" s="2">
+        <v>8.2899999999999991</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>196</v>
+      </c>
+      <c r="B138" s="2">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>197</v>
+      </c>
+      <c r="B139" s="2">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>198</v>
+      </c>
+      <c r="B140" s="2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>199</v>
+      </c>
+      <c r="B141" s="2">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>200</v>
+      </c>
+      <c r="B142" s="2">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>201</v>
+      </c>
+      <c r="B143" s="2">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>202</v>
+      </c>
+      <c r="B144" s="2">
+        <v>7.41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>203</v>
+      </c>
+      <c r="B145" s="2">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>204</v>
+      </c>
+      <c r="B146" s="2">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>205</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>206</v>
+      </c>
+      <c r="B148" s="2">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>207</v>
+      </c>
+      <c r="B149" s="2">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>208</v>
+      </c>
+      <c r="B150" s="2">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>209</v>
+      </c>
+      <c r="B151" s="2">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>210</v>
+      </c>
+      <c r="B152" s="2">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>211</v>
+      </c>
+      <c r="B153" s="2">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>212</v>
+      </c>
+      <c r="B154" s="2">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>213</v>
+      </c>
+      <c r="B155" s="2">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>214</v>
+      </c>
+      <c r="B156" s="2">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>215</v>
+      </c>
+      <c r="B157" s="2">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>216</v>
+      </c>
+      <c r="B158" s="2">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>217</v>
+      </c>
+      <c r="B159" s="2">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>218</v>
+      </c>
+      <c r="B160" s="2">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>219</v>
+      </c>
+      <c r="B161" s="2">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>220</v>
+      </c>
+      <c r="B162" s="2">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>221</v>
+      </c>
+      <c r="B163" s="2">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>222</v>
+      </c>
+      <c r="B164" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>223</v>
+      </c>
+      <c r="B165" s="2">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>224</v>
+      </c>
+      <c r="B166" s="2">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>225</v>
+      </c>
+      <c r="B167" s="2">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>226</v>
+      </c>
+      <c r="B168" s="2">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>227</v>
+      </c>
+      <c r="B169" s="2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>228</v>
+      </c>
+      <c r="B170" s="2">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>229</v>
+      </c>
+      <c r="B171" s="2">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>230</v>
+      </c>
+      <c r="B172" s="2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>231</v>
+      </c>
+      <c r="B173" s="2">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>232</v>
+      </c>
+      <c r="B174" s="2">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>233</v>
+      </c>
+      <c r="B175" s="2">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>234</v>
+      </c>
+      <c r="B176" s="2">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>235</v>
+      </c>
+      <c r="B177" s="2">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>236</v>
+      </c>
+      <c r="B178" s="2">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>237</v>
+      </c>
+      <c r="B179" s="2">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>238</v>
+      </c>
+      <c r="B180" s="2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>239</v>
+      </c>
+      <c r="B181" s="2">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>240</v>
+      </c>
+      <c r="B182" s="2">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>241</v>
+      </c>
+      <c r="B183" s="2">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>242</v>
+      </c>
+      <c r="B184" s="2">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>243</v>
+      </c>
+      <c r="B185" s="2">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>244</v>
+      </c>
+      <c r="B186" s="2">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>245</v>
+      </c>
+      <c r="B187" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>246</v>
+      </c>
+      <c r="B188" s="2">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>247</v>
+      </c>
+      <c r="B189" s="2">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>248</v>
+      </c>
+      <c r="B190" s="2">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>249</v>
+      </c>
+      <c r="B191" s="2">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>250</v>
+      </c>
+      <c r="B192" s="2">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>251</v>
+      </c>
+      <c r="B193" s="2">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>252</v>
+      </c>
+      <c r="B194" s="2">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>253</v>
+      </c>
+      <c r="B195" s="2">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>254</v>
+      </c>
+      <c r="B196" s="2">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>255</v>
+      </c>
+      <c r="B197" s="2">
+        <v>6.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77377470-2DDB-4DC6-9F37-C6A6E1D2FFCD}">
   <dimension ref="A1:B197"/>
   <sheetViews>
@@ -14533,11 +22120,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC90425-239E-4856-88AE-814FB16F9F48}">
   <dimension ref="A1:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
